--- a/hardware/doc/PiezoPiano_BOM_20211023_1024.xlsx
+++ b/hardware/doc/PiezoPiano_BOM_20211023_1024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\PiezoPiano\hardware\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8042938B-A641-4D5C-857E-635CEAA31F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E663705C-2540-4156-B8AC-CA0F0F5DFE80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45120" yWindow="2250" windowWidth="29955" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="93">
   <si>
     <t>Description</t>
   </si>
@@ -290,6 +290,15 @@
   </si>
   <si>
     <t>WS2812B LED</t>
+  </si>
+  <si>
+    <t>0603 Yellow</t>
+  </si>
+  <si>
+    <t>150121M173000</t>
+  </si>
+  <si>
+    <t>Wurth Electronics</t>
   </si>
 </sst>
 </file>
@@ -694,7 +703,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,7 +712,7 @@
     <col min="2" max="2" width="6.42578125" customWidth="1"/>
     <col min="3" max="3" width="56.85546875" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
     <col min="6" max="6" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -823,7 +832,9 @@
       <c r="D10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -991,8 +1002,12 @@
         <v>55</v>
       </c>
       <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
